--- a/frontend/public/template_xlsx_historial.xlsx
+++ b/frontend/public/template_xlsx_historial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITSystems\ContabilidadISV\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FB500-7755-4231-A0DA-28D12361CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DA761C-EF60-4767-B58A-A221A9BF7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen por Cliente" sheetId="1" r:id="rId1"/>
@@ -293,15 +293,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +308,15 @@
     <xf numFmtId="44" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,42 +712,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -755,7 +758,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -763,356 +766,356 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1123,8 +1126,11 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A53:D55"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;RPágina &amp;P de &amp;N</oddFooter>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="C6:D7 A6:A51 C51:D51" numberStoredAsText="1"/>
   </ignoredErrors>
